--- a/public/templates/template_lecturer.xlsx
+++ b/public/templates/template_lecturer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maggi\Desktop\Exam Web\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\exam-web\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC29EC9E-645C-4B50-AEAE-9BB0A1EA8D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE1C67A-F0CF-4D22-9BCC-15A1AD3475E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{734EAA47-6A5F-40C4-AB63-D2F59196D701}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{734EAA47-6A5F-40C4-AB63-D2F59196D701}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Nama</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>Max SKS</t>
+  </si>
+  <si>
+    <t>Bagian</t>
   </si>
 </sst>
 </file>
@@ -96,12 +99,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -110,16 +128,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="60% - Accent1" xfId="1" builtinId="32"/>
@@ -140,9 +159,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -180,7 +199,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -286,7 +305,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -428,7 +447,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -436,58 +455,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610C00DA-B0CA-45CA-98F5-495D8C91461F}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="36.21875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.88671875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.33203125" style="3" customWidth="1"/>
-    <col min="8" max="9" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C2" s="4"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J5" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="L2NvOO3nGUThEqFNM77yKkzCXhHfwzxTnzyByysl75uJqKyKUZrXsi5aObFmeiyFLq8nVUYD7+EE7tv29q8JvQ==" saltValue="tILKJF2TUZcIVw6hnHrJmQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>